--- a/biology/Microbiologie/Massilia_(bactérie)/Massilia_(bactérie).xlsx
+++ b/biology/Microbiologie/Massilia_(bactérie)/Massilia_(bactérie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Massilia_(bact%C3%A9rie)</t>
+          <t>Massilia_(bactérie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Massilia est un genre de bactéries, de la famille des Oxalobacteraceae. Une première description est faite par La Scola et al. en 2000[2], puis validée la même année[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Massilia est un genre de bactéries, de la famille des Oxalobacteraceae. Une première description est faite par La Scola et al. en 2000, puis validée la même année.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Massilia_(bact%C3%A9rie)</t>
+          <t>Massilia_(bactérie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (19 mars 2020)[4] et ITIS      (19 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (19 mars 2020) et ITIS      (19 mars 2020) :
 Massilia aerilata Weon et al., 2008
 Massilia albidiflava Zhang et al., 2006
 Massilia alkalitolerans (Xu et al., 2005) Kämpfer et al., 2011
@@ -532,7 +546,7 @@
 Massilia suwonensis (Weon et al., 2010) Kämpfer et al., 2011
 Massilia timonae La Scola et al., 2000 emend. Lindquist et al., 2003
 Massilia varians (Kämpfer et al., 2008) Kämpfer et al., 2011
-Selon NCBI  (19 mars 2020)[5] :
+Selon NCBI  (19 mars 2020) :
 Massilia aerilata Weon et al. 2008
 Massilia agilis Altankhuu &amp; Kim 2017
 Massilia agri Chaudhary &amp; Kim 2017
